--- a/2018_bisc_coral_species_numbers.xlsx
+++ b/2018_bisc_coral_species_numbers.xlsx
@@ -484,8 +484,8 @@
   <dimension ref="A1:U44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45:XFD45"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -621,6 +621,12 @@
       <c r="S2" s="1">
         <v>0</v>
       </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="1">
@@ -678,6 +684,12 @@
         <v>0</v>
       </c>
       <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
         <v>0</v>
       </c>
     </row>
@@ -739,6 +751,12 @@
       <c r="S4" s="1">
         <v>0</v>
       </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="1">
@@ -798,6 +816,12 @@
       <c r="S5" s="1">
         <v>0</v>
       </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="1">
@@ -857,6 +881,12 @@
       <c r="S6" s="1">
         <v>0</v>
       </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="1">
@@ -916,6 +946,12 @@
       <c r="S7" s="1">
         <v>0</v>
       </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="1">
@@ -975,6 +1011,12 @@
       <c r="S8" s="1">
         <v>0</v>
       </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="1">
@@ -1032,6 +1074,12 @@
         <v>0</v>
       </c>
       <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1093,6 +1141,12 @@
       <c r="S10" s="1">
         <v>0</v>
       </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="1">
@@ -2818,7 +2872,9 @@
       <c r="K37" s="1">
         <v>0</v>
       </c>
-      <c r="L37" s="1"/>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
       <c r="M37" s="1">
         <v>0</v>
       </c>
